--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2838.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2838.xlsx
@@ -354,7 +354,7 @@
         <v>2.440499084254364</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.362059428161472</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2838.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2838.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171338075455854</v>
+        <v>1.157353639602661</v>
       </c>
       <c r="B1">
-        <v>2.440499084254364</v>
+        <v>2.232425689697266</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.566696643829346</v>
       </c>
       <c r="D1">
-        <v>2.362059428161472</v>
+        <v>2.662504196166992</v>
       </c>
       <c r="E1">
-        <v>1.236351456249045</v>
+        <v>1.240180134773254</v>
       </c>
     </row>
   </sheetData>
